--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -495,7 +495,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -503,23 +503,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -527,10 +528,10 @@
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="44.140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -881,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>27</v>
@@ -901,7 +902,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>27</v>
@@ -2956,273 +2957,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4807F61C-6EF9-493C-9F4A-A64B0CE94B40}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D3D956A-B4E5-4523-9DD8-44248EE9721A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3550BDB2-DA71-4B57-9A6B-755FD96B2B0C}"/>
 </file>
--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -1031,7 +1031,7 @@
         <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1171,7 +1171,7 @@
         <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1211,7 +1211,7 @@
         <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1331,7 +1331,7 @@
         <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1371,7 +1371,7 @@
         <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1391,7 +1391,7 @@
         <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1471,7 +1471,7 @@
         <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1511,7 +1511,7 @@
         <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1631,7 +1631,7 @@
         <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -1671,7 +1671,7 @@
         <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -1791,7 +1791,7 @@
         <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -1831,7 +1831,7 @@
         <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -1851,7 +1851,7 @@
         <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -89,6 +89,48 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Model Atto Estero</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
     <t>Dati decesso</t>
   </si>
   <si>
@@ -372,48 +414,6 @@
   </si>
   <si>
     <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Descrizione documento</t>
-  </si>
-  <si>
-    <t>descrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
@@ -762,7 +762,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
@@ -802,7 +802,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -842,7 +842,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>27</v>
@@ -856,19 +856,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -896,19 +896,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -916,19 +916,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -936,19 +936,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -956,19 +956,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -976,19 +976,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -996,19 +996,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -1016,16 +1016,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>58</v>
@@ -1036,16 +1036,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>60</v>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>62</v>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>64</v>
@@ -1096,16 +1096,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>66</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>68</v>
@@ -1136,19 +1136,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1156,19 +1156,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1176,19 +1176,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1196,19 +1196,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1216,19 +1216,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1236,19 +1236,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1276,19 +1276,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1296,19 +1296,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1316,19 +1316,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1336,19 +1336,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1356,19 +1356,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1376,19 +1376,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1396,19 +1396,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1416,19 +1416,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1436,19 +1436,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1456,39 +1456,39 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1496,39 +1496,39 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1536,19 +1536,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1556,19 +1556,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1576,39 +1576,39 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1616,19 +1616,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
@@ -1636,19 +1636,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1656,39 +1656,39 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1696,19 +1696,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1716,19 +1716,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1736,39 +1736,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1776,19 +1776,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -1796,19 +1796,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1816,59 +1816,59 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1876,19 +1876,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1896,39 +1896,39 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1936,42 +1936,42 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -1979,7 +1979,7 @@
         <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
@@ -1988,7 +1988,7 @@
         <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1999,7 +1999,7 @@
         <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
@@ -2008,7 +2008,7 @@
         <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2019,7 +2019,7 @@
         <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
@@ -2028,7 +2028,7 @@
         <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2039,7 +2039,7 @@
         <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -2048,7 +2048,7 @@
         <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2059,7 +2059,7 @@
         <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
@@ -2068,7 +2068,7 @@
         <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2079,7 +2079,7 @@
         <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
@@ -2088,7 +2088,7 @@
         <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2099,7 +2099,7 @@
         <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -2108,7 +2108,7 @@
         <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2119,7 +2119,7 @@
         <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
@@ -2128,7 +2128,7 @@
         <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2139,7 +2139,7 @@
         <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
@@ -2148,7 +2148,7 @@
         <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2159,7 +2159,7 @@
         <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
@@ -2168,7 +2168,7 @@
         <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2179,7 +2179,7 @@
         <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
@@ -2188,7 +2188,7 @@
         <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2199,7 +2199,7 @@
         <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
@@ -2208,7 +2208,7 @@
         <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2219,7 +2219,7 @@
         <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
@@ -2228,7 +2228,7 @@
         <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2239,7 +2239,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
@@ -2248,7 +2248,7 @@
         <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2259,7 +2259,7 @@
         <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
@@ -2268,7 +2268,7 @@
         <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2279,7 +2279,7 @@
         <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
@@ -2288,7 +2288,7 @@
         <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2299,7 +2299,7 @@
         <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
@@ -2308,7 +2308,7 @@
         <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2319,7 +2319,7 @@
         <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
@@ -2328,7 +2328,7 @@
         <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2339,7 +2339,7 @@
         <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
@@ -2348,7 +2348,7 @@
         <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2359,7 +2359,7 @@
         <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
@@ -2368,7 +2368,7 @@
         <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2379,7 +2379,7 @@
         <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
@@ -2388,7 +2388,7 @@
         <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2399,7 +2399,7 @@
         <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
@@ -2408,7 +2408,7 @@
         <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2419,7 +2419,7 @@
         <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
@@ -2428,7 +2428,7 @@
         <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2439,7 +2439,7 @@
         <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
@@ -2448,7 +2448,7 @@
         <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2459,7 +2459,7 @@
         <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>8</v>
@@ -2468,7 +2468,7 @@
         <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2479,7 +2479,7 @@
         <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
@@ -2488,7 +2488,7 @@
         <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2499,7 +2499,7 @@
         <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
@@ -2508,7 +2508,7 @@
         <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2519,7 +2519,7 @@
         <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
@@ -2528,7 +2528,7 @@
         <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2539,7 +2539,7 @@
         <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
@@ -2548,7 +2548,7 @@
         <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2559,7 +2559,7 @@
         <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
@@ -2568,7 +2568,7 @@
         <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2579,7 +2579,7 @@
         <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
@@ -2588,7 +2588,7 @@
         <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2599,7 +2599,7 @@
         <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
@@ -2608,7 +2608,7 @@
         <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2619,7 +2619,7 @@
         <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
@@ -2628,7 +2628,7 @@
         <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2639,7 +2639,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
@@ -2648,7 +2648,7 @@
         <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2659,7 +2659,7 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
@@ -2668,7 +2668,7 @@
         <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2679,7 +2679,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2699,7 +2699,7 @@
         <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
@@ -2708,7 +2708,7 @@
         <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -2719,7 +2719,7 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
@@ -2728,7 +2728,7 @@
         <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -2739,7 +2739,7 @@
         <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
@@ -2748,7 +2748,7 @@
         <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -2759,7 +2759,7 @@
         <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
@@ -2768,7 +2768,7 @@
         <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -2779,7 +2779,7 @@
         <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
@@ -2788,7 +2788,7 @@
         <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -2799,7 +2799,7 @@
         <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
@@ -2808,7 +2808,7 @@
         <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -2819,7 +2819,7 @@
         <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
@@ -2828,7 +2828,7 @@
         <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -2839,7 +2839,7 @@
         <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
@@ -2848,7 +2848,7 @@
         <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -2925,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>147</v>
@@ -2945,7 +2945,7 @@
         <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>149</v>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -89,7 +89,292 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Model Atto Estero</t>
+    <t>Dati decesso</t>
+  </si>
+  <si>
+    <t>Data morte</t>
+  </si>
+  <si>
+    <t>evento.datiDiMorte</t>
+  </si>
+  <si>
+    <t>dataMorte</t>
+  </si>
+  <si>
+    <t>Ora</t>
+  </si>
+  <si>
+    <t>oraMorte</t>
+  </si>
+  <si>
+    <t>Minuti</t>
+  </si>
+  <si>
+    <t>minutoMorte</t>
+  </si>
+  <si>
+    <t>Data presunta inizio</t>
+  </si>
+  <si>
+    <t>dataPresuntaMorteDa</t>
+  </si>
+  <si>
+    <t>Data presunta fine</t>
+  </si>
+  <si>
+    <t>dataPresuntaMorteA</t>
+  </si>
+  <si>
+    <t>Note data e ora presunta</t>
+  </si>
+  <si>
+    <t>testoDataPresuntaMorte</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>luogoMorte</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStatoMorte</t>
+  </si>
+  <si>
+    <t>Stato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzoMorte</t>
+  </si>
+  <si>
+    <t>Richiedente</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Deceduto</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Stato Nascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia Nascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune Nascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>Nazionalità   - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato Residenza</t>
+  </si>
+  <si>
+    <t>Stato Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia Residenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune Residenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>Atto da trascrivere</t>
   </si>
   <si>
     <t>Nome ente</t>
@@ -129,291 +414,6 @@
   </si>
   <si>
     <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Dati decesso</t>
-  </si>
-  <si>
-    <t>Data morte</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>Minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Data presunta inizio</t>
-  </si>
-  <si>
-    <t>dataPresuntaMorteDa</t>
-  </si>
-  <si>
-    <t>Data presunta fine</t>
-  </si>
-  <si>
-    <t>dataPresuntaMorteA</t>
-  </si>
-  <si>
-    <t>Note data e ora presunta</t>
-  </si>
-  <si>
-    <t>testoDataPresuntaMorte</t>
-  </si>
-  <si>
-    <t>Luogo</t>
-  </si>
-  <si>
-    <t>luogoMorte</t>
-  </si>
-  <si>
-    <t>Stato</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>Indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Richiedente</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.dichiarante</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Deceduto</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
@@ -762,7 +762,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -782,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
@@ -802,7 +802,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -842,7 +842,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>27</v>
@@ -856,19 +856,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -896,19 +896,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -916,19 +916,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -936,19 +936,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -956,19 +956,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -976,19 +976,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -996,19 +996,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -1016,16 +1016,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>58</v>
@@ -1036,16 +1036,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>60</v>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>62</v>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>64</v>
@@ -1096,16 +1096,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>66</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>68</v>
@@ -1136,19 +1136,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1156,19 +1156,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1176,19 +1176,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1196,19 +1196,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1216,19 +1216,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1236,19 +1236,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1276,19 +1276,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1296,19 +1296,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1316,19 +1316,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1336,19 +1336,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1356,19 +1356,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1376,19 +1376,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1396,19 +1396,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1416,19 +1416,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1436,19 +1436,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1456,39 +1456,39 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1496,39 +1496,39 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1536,19 +1536,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1556,19 +1556,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1576,39 +1576,39 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1616,19 +1616,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>14</v>
@@ -1636,19 +1636,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1656,39 +1656,39 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1696,19 +1696,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1716,19 +1716,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1736,39 +1736,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1776,19 +1776,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -1796,19 +1796,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1816,59 +1816,59 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1876,19 +1876,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1896,39 +1896,39 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1936,42 +1936,42 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -1979,7 +1979,7 @@
         <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
@@ -1988,7 +1988,7 @@
         <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1999,7 +1999,7 @@
         <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
@@ -2008,7 +2008,7 @@
         <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2019,7 +2019,7 @@
         <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
@@ -2028,7 +2028,7 @@
         <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2039,7 +2039,7 @@
         <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -2048,7 +2048,7 @@
         <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2059,7 +2059,7 @@
         <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
@@ -2068,7 +2068,7 @@
         <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2079,7 +2079,7 @@
         <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
@@ -2088,7 +2088,7 @@
         <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2099,7 +2099,7 @@
         <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -2108,7 +2108,7 @@
         <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2119,7 +2119,7 @@
         <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
@@ -2128,7 +2128,7 @@
         <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2139,7 +2139,7 @@
         <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
@@ -2148,7 +2148,7 @@
         <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2159,7 +2159,7 @@
         <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
@@ -2168,7 +2168,7 @@
         <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2179,7 +2179,7 @@
         <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
@@ -2188,7 +2188,7 @@
         <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2199,7 +2199,7 @@
         <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>8</v>
@@ -2208,7 +2208,7 @@
         <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2219,7 +2219,7 @@
         <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>8</v>
@@ -2228,7 +2228,7 @@
         <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2239,7 +2239,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
@@ -2248,7 +2248,7 @@
         <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2259,7 +2259,7 @@
         <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
@@ -2268,7 +2268,7 @@
         <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2279,7 +2279,7 @@
         <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
@@ -2288,7 +2288,7 @@
         <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2299,7 +2299,7 @@
         <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
@@ -2308,7 +2308,7 @@
         <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2319,7 +2319,7 @@
         <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
@@ -2328,7 +2328,7 @@
         <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2339,7 +2339,7 @@
         <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
@@ -2348,7 +2348,7 @@
         <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2359,7 +2359,7 @@
         <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>8</v>
@@ -2368,7 +2368,7 @@
         <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2379,7 +2379,7 @@
         <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
@@ -2388,7 +2388,7 @@
         <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2399,7 +2399,7 @@
         <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
@@ -2408,7 +2408,7 @@
         <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2419,7 +2419,7 @@
         <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>8</v>
@@ -2428,7 +2428,7 @@
         <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2439,7 +2439,7 @@
         <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
@@ -2448,7 +2448,7 @@
         <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2459,7 +2459,7 @@
         <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>8</v>
@@ -2468,7 +2468,7 @@
         <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2479,7 +2479,7 @@
         <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
@@ -2488,7 +2488,7 @@
         <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2499,7 +2499,7 @@
         <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
@@ -2508,7 +2508,7 @@
         <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2519,7 +2519,7 @@
         <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
@@ -2528,7 +2528,7 @@
         <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2539,7 +2539,7 @@
         <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
@@ -2548,7 +2548,7 @@
         <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2559,7 +2559,7 @@
         <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
@@ -2568,7 +2568,7 @@
         <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2579,7 +2579,7 @@
         <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
@@ -2588,7 +2588,7 @@
         <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2599,7 +2599,7 @@
         <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>8</v>
@@ -2608,7 +2608,7 @@
         <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -2619,7 +2619,7 @@
         <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>8</v>
@@ -2628,7 +2628,7 @@
         <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2639,7 +2639,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
@@ -2648,7 +2648,7 @@
         <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2659,7 +2659,7 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
@@ -2668,7 +2668,7 @@
         <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -2679,7 +2679,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -2699,7 +2699,7 @@
         <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
@@ -2708,7 +2708,7 @@
         <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -2719,7 +2719,7 @@
         <v>136</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
@@ -2728,7 +2728,7 @@
         <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -2739,7 +2739,7 @@
         <v>136</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
@@ -2748,7 +2748,7 @@
         <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -2759,7 +2759,7 @@
         <v>136</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>8</v>
@@ -2768,7 +2768,7 @@
         <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -2779,7 +2779,7 @@
         <v>136</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>8</v>
@@ -2788,7 +2788,7 @@
         <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -2799,7 +2799,7 @@
         <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>8</v>
@@ -2808,7 +2808,7 @@
         <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -2819,7 +2819,7 @@
         <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
@@ -2828,7 +2828,7 @@
         <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -2839,7 +2839,7 @@
         <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>8</v>
@@ -2848,7 +2848,7 @@
         <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -2925,7 +2925,7 @@
         <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>147</v>
@@ -2945,7 +2945,7 @@
         <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>149</v>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -422,7 +428,13 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -520,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -532,6 +544,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -553,85 +566,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -653,2305 +681,2653 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -59,7 +59,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192</t>
+    <t>192.7</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -1866,7 +1866,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>104</v>
@@ -1889,7 +1889,7 @@
         <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>104</v>
@@ -1898,7 +1898,7 @@
         <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>20</v>
@@ -1912,7 +1912,7 @@
         <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>104</v>
@@ -1935,7 +1935,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>104</v>
@@ -1944,7 +1944,7 @@
         <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>20</v>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,34 +32,37 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di morte (in originale)</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Traduzione atto di morte</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>192.7</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di morte (in originale)</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Traduzione atto di morte</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>192.7</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -682,2652 +685,2652 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -431,13 +431,13 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -547,7 +547,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -59,7 +59,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>192.7</t>
+    <t>192.8</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -1119,7 +1119,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
@@ -1280,7 +1280,7 @@
         <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>21</v>
@@ -1326,7 +1326,7 @@
         <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -1464,7 +1464,7 @@
         <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
@@ -1510,7 +1510,7 @@
         <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1533,7 +1533,7 @@
         <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
@@ -1625,7 +1625,7 @@
         <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>21</v>
@@ -1671,7 +1671,7 @@
         <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -1809,7 +1809,7 @@
         <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>21</v>
@@ -1855,7 +1855,7 @@
         <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>21</v>
@@ -1901,7 +1901,7 @@
         <v>83</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>21</v>
@@ -1947,7 +1947,7 @@
         <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>21</v>
@@ -1993,7 +1993,7 @@
         <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>21</v>
@@ -2039,7 +2039,7 @@
         <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>21</v>
@@ -2062,7 +2062,7 @@
         <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -182,6 +182,12 @@
     <t>nomeComuneMorte</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Indirizzo</t>
   </si>
   <si>
@@ -252,6 +258,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -535,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1104,22 +1113,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
@@ -1127,22 +1136,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -1150,7 +1159,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
@@ -1159,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
@@ -1173,7 +1182,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
@@ -1182,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
@@ -1196,7 +1205,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>68</v>
@@ -1205,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -1219,7 +1228,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
@@ -1228,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -1242,16 +1251,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1265,7 +1274,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
@@ -1274,13 +1283,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>21</v>
@@ -1288,7 +1297,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>76</v>
@@ -1297,13 +1306,13 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -1311,7 +1320,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>78</v>
@@ -1320,13 +1329,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -1334,22 +1343,22 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>21</v>
@@ -1357,22 +1366,22 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
@@ -1380,19 +1389,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1403,19 +1412,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1426,19 +1435,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1449,22 +1458,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
@@ -1472,19 +1481,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1495,19 +1504,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>15</v>
@@ -1518,22 +1527,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
@@ -1541,22 +1550,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1564,22 +1573,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>21</v>
@@ -1587,19 +1596,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1619,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1642,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1665,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1679,7 +1688,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
@@ -1688,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>65</v>
@@ -1702,19 +1711,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1734,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1757,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1780,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1803,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1826,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1849,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1872,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1895,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1918,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1932,7 +1941,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>117</v>
@@ -1941,10 +1950,10 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1955,7 +1964,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>118</v>
@@ -1964,10 +1973,10 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1978,7 +1987,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>119</v>
@@ -1987,10 +1996,10 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2001,7 +2010,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>120</v>
@@ -2010,10 +2019,10 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2024,7 +2033,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>121</v>
@@ -2033,10 +2042,10 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2047,7 +2056,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>122</v>
@@ -2056,10 +2065,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2079,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2102,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2125,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2148,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2171,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2185,19 +2194,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2208,508 +2217,508 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95">
@@ -2717,22 +2726,22 @@
         <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
@@ -2740,22 +2749,22 @@
         <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
@@ -2763,22 +2772,22 @@
         <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98">
@@ -2786,22 +2795,22 @@
         <v>140</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
@@ -2809,527 +2818,665 @@
         <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="191">
   <si>
     <t>Sezione</t>
   </si>
@@ -486,6 +486,105 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -544,17 +643,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3480,6 +3579,351 @@
         <v>21</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="199">
   <si>
     <t>Sezione</t>
   </si>
@@ -390,6 +390,30 @@
   </si>
   <si>
     <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -643,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2247,19 +2271,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2270,19 +2294,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2293,19 +2317,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2340,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2363,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2386,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2385,19 +2409,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2408,1152 +2432,1152 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
@@ -3561,16 +3585,16 @@
         <v>153</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3581,122 +3605,122 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>171</v>
@@ -3705,7 +3729,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>172</v>
@@ -3714,12 +3738,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>173</v>
@@ -3728,136 +3752,136 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>184</v>
@@ -3866,61 +3890,153 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -212,6 +212,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -263,13 +269,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -363,9 +369,6 @@
   </si>
   <si>
     <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
   </si>
   <si>
     <t>Nazionalità   - Descrizione</t>
@@ -667,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1311,7 +1314,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>62</v>
@@ -1403,7 +1406,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>62</v>
@@ -1435,7 +1438,7 @@
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>21</v>
@@ -1458,7 +1461,7 @@
         <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -1481,7 +1484,7 @@
         <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>21</v>
@@ -1492,7 +1495,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1501,7 +1504,7 @@
         <v>62</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -1515,10 +1518,10 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>62</v>
@@ -1527,7 +1530,7 @@
         <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -1610,7 +1613,7 @@
         <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>62</v>
@@ -1642,7 +1645,7 @@
         <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1665,7 +1668,7 @@
         <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
@@ -1688,7 +1691,7 @@
         <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1725,7 +1728,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>62</v>
@@ -1734,7 +1737,7 @@
         <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>21</v>
@@ -1788,19 +1791,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1814,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1837,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1860,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1883,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1906,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1929,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1952,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1975,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1995,7 +1998,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>115</v>
@@ -2004,10 +2007,10 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2018,7 +2021,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>116</v>
@@ -2027,10 +2030,10 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2044,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2067,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2090,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2113,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2136,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2159,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2182,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2205,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2228,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2251,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2274,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2297,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2320,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2343,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2366,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2389,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2412,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2435,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2458,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2481,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2504,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2524,1169 +2527,1169 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3697,346 +3700,438 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="202">
   <si>
     <t>Sezione</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -670,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1590,7 +1596,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>62</v>
@@ -1599,7 +1605,7 @@
         <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
@@ -1613,7 +1619,7 @@
         <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>62</v>
@@ -1645,7 +1651,7 @@
         <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1668,7 +1674,7 @@
         <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
@@ -1691,7 +1697,7 @@
         <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1714,7 +1720,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>21</v>
@@ -1751,7 +1757,7 @@
         <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>62</v>
@@ -1760,7 +1766,7 @@
         <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>21</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2205,7 +2211,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>122</v>
@@ -2214,10 +2220,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2228,7 +2234,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>123</v>
@@ -2237,10 +2243,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2251,7 +2257,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>124</v>
@@ -2260,10 +2266,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2274,7 +2280,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>125</v>
@@ -2283,10 +2289,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2297,7 +2303,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>126</v>
@@ -2306,10 +2312,10 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2320,7 +2326,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>127</v>
@@ -2329,10 +2335,10 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>143</v>
@@ -2513,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>144</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2573,571 +2579,571 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3154,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3177,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3194,485 +3200,485 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131">
@@ -3680,22 +3686,22 @@
         <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="132">
@@ -3703,22 +3709,22 @@
         <v>154</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
@@ -3726,62 +3732,62 @@
         <v>154</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3792,346 +3798,438 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="204">
   <si>
     <t>Sezione</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -676,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1628,7 +1634,7 @@
         <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>21</v>
@@ -1651,7 +1657,7 @@
         <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1674,7 +1680,7 @@
         <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
@@ -1697,7 +1703,7 @@
         <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>21</v>
@@ -1720,7 +1726,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>21</v>
@@ -1743,7 +1749,7 @@
         <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>21</v>
@@ -1780,7 +1786,7 @@
         <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>62</v>
@@ -1789,7 +1795,7 @@
         <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1918,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1941,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2211,16 +2217,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>92</v>
@@ -2234,16 +2240,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>94</v>
@@ -2257,16 +2263,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>96</v>
@@ -2280,16 +2286,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>98</v>
@@ -2303,16 +2309,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>100</v>
@@ -2326,16 +2332,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>102</v>
@@ -2349,16 +2355,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>104</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2395,7 +2401,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>131</v>
@@ -2404,7 +2410,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>132</v>
@@ -2418,7 +2424,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>133</v>
@@ -2427,7 +2433,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>134</v>
@@ -2441,7 +2447,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>135</v>
@@ -2450,7 +2456,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>136</v>
@@ -2464,19 +2470,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2487,16 +2493,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>142</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>143</v>
@@ -2519,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>144</v>
@@ -2533,19 +2539,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2562,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2579,16 +2585,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>148</v>
@@ -2602,16 +2608,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>150</v>
@@ -2625,594 +2631,594 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3223,19 +3229,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3246,531 +3252,531 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135">
@@ -3778,22 +3784,22 @@
         <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -3801,22 +3807,22 @@
         <v>156</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137">
@@ -3824,39 +3830,39 @@
         <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3867,19 +3873,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3890,346 +3896,415 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
+      <c r="B157" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="206">
   <si>
     <t>Sezione</t>
   </si>
@@ -594,6 +594,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -682,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4241,39 +4247,39 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>201</v>
@@ -4287,7 +4293,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>202</v>
@@ -4296,7 +4302,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>203</v>
@@ -4305,6 +4311,29 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="205">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -2203,7 +2200,7 @@
         <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2249,7 +2246,7 @@
         <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2272,7 +2269,7 @@
         <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -2295,7 +2292,7 @@
         <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2318,7 +2315,7 @@
         <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
@@ -2341,7 +2338,7 @@
         <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2364,7 +2361,7 @@
         <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2387,7 +2384,7 @@
         <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2410,7 +2407,7 @@
         <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2419,7 +2416,7 @@
         <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2433,7 +2430,7 @@
         <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2442,7 +2439,7 @@
         <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2456,7 +2453,7 @@
         <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2465,7 +2462,7 @@
         <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2479,7 +2476,7 @@
         <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2488,7 +2485,7 @@
         <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2496,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2519,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2542,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2568,7 +2565,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>56</v>
@@ -2577,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>57</v>
@@ -2591,19 +2588,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2611,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2634,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2660,7 +2657,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>61</v>
@@ -2669,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>63</v>
@@ -2678,21 +2675,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>65</v>
@@ -2701,12 +2698,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>66</v>
@@ -2715,7 +2712,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>67</v>
@@ -2724,12 +2721,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>68</v>
@@ -2738,7 +2735,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>69</v>
@@ -2747,12 +2744,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>70</v>
@@ -2761,7 +2758,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>71</v>
@@ -2770,12 +2767,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>72</v>
@@ -2784,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>73</v>
@@ -2793,12 +2790,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>74</v>
@@ -2807,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>75</v>
@@ -2816,12 +2813,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>76</v>
@@ -2830,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>77</v>
@@ -2839,12 +2836,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>78</v>
@@ -2853,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>79</v>
@@ -2862,12 +2859,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>80</v>
@@ -2876,7 +2873,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>81</v>
@@ -2885,12 +2882,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>82</v>
@@ -2899,7 +2896,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>83</v>
@@ -2908,12 +2905,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>56</v>
@@ -2922,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>84</v>
@@ -2931,12 +2928,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>85</v>
@@ -2945,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>86</v>
@@ -2954,12 +2951,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>87</v>
@@ -2968,7 +2965,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>88</v>
@@ -2977,12 +2974,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>89</v>
@@ -2991,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>90</v>
@@ -3000,12 +2997,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>91</v>
@@ -3014,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>92</v>
@@ -3023,12 +3020,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>93</v>
@@ -3037,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>94</v>
@@ -3046,12 +3043,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>95</v>
@@ -3060,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>96</v>
@@ -3069,12 +3066,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>97</v>
@@ -3083,7 +3080,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>98</v>
@@ -3092,12 +3089,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>99</v>
@@ -3106,7 +3103,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>100</v>
@@ -3115,12 +3112,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>101</v>
@@ -3129,7 +3126,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>102</v>
@@ -3138,12 +3135,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>103</v>
@@ -3152,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>104</v>
@@ -3161,12 +3158,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>105</v>
@@ -3175,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>106</v>
@@ -3184,12 +3181,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>107</v>
@@ -3198,7 +3195,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>108</v>
@@ -3207,12 +3204,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>109</v>
@@ -3221,7 +3218,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>110</v>
@@ -3230,12 +3227,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>111</v>
@@ -3244,7 +3241,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>112</v>
@@ -3253,12 +3250,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>61</v>
@@ -3267,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>63</v>
@@ -3276,21 +3273,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>65</v>
@@ -3299,12 +3296,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>66</v>
@@ -3313,7 +3310,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>67</v>
@@ -3322,12 +3319,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>68</v>
@@ -3336,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>69</v>
@@ -3345,12 +3342,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>70</v>
@@ -3359,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>71</v>
@@ -3368,12 +3365,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>72</v>
@@ -3382,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>73</v>
@@ -3391,12 +3388,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>74</v>
@@ -3405,7 +3402,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>75</v>
@@ -3414,12 +3411,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>76</v>
@@ -3428,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>77</v>
@@ -3437,12 +3434,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>78</v>
@@ -3451,7 +3448,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>79</v>
@@ -3460,12 +3457,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>80</v>
@@ -3474,7 +3471,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>81</v>
@@ -3483,12 +3480,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>82</v>
@@ -3497,7 +3494,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>83</v>
@@ -3506,12 +3503,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>56</v>
@@ -3520,7 +3517,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>84</v>
@@ -3529,12 +3526,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>85</v>
@@ -3543,7 +3540,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>86</v>
@@ -3552,12 +3549,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>87</v>
@@ -3566,7 +3563,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>88</v>
@@ -3575,12 +3572,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>89</v>
@@ -3589,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>90</v>
@@ -3598,12 +3595,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>91</v>
@@ -3612,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>92</v>
@@ -3621,12 +3618,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>93</v>
@@ -3635,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>94</v>
@@ -3644,12 +3641,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>95</v>
@@ -3658,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>96</v>
@@ -3667,12 +3664,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>97</v>
@@ -3681,7 +3678,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>98</v>
@@ -3690,12 +3687,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>99</v>
@@ -3704,7 +3701,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>100</v>
@@ -3713,12 +3710,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>101</v>
@@ -3727,7 +3724,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>102</v>
@@ -3736,12 +3733,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>103</v>
@@ -3750,7 +3747,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>104</v>
@@ -3759,12 +3756,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>105</v>
@@ -3773,7 +3770,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>106</v>
@@ -3782,12 +3779,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>107</v>
@@ -3796,7 +3793,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>108</v>
@@ -3805,12 +3802,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>109</v>
@@ -3819,7 +3816,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>110</v>
@@ -3828,12 +3825,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>111</v>
@@ -3842,7 +3839,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>112</v>
@@ -3851,24 +3848,24 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3879,19 +3876,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3902,19 +3899,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3925,10 +3922,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
@@ -3937,7 +3934,7 @@
         <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3948,10 +3945,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
@@ -3960,7 +3957,7 @@
         <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3971,154 +3968,154 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>20</v>
@@ -4127,44 +4124,44 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>23</v>
@@ -4173,116 +4170,116 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4293,19 +4290,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4316,19 +4313,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -53,7 +53,7 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Traduzione atto di morte</t>
+    <t>Atto di costituzione e traduzione</t>
   </si>
   <si>
     <t>Formula</t>
@@ -777,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/morte/Morte_006.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="209">
   <si>
     <t>Sezione</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -685,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1375,7 +1387,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>62</v>
@@ -1398,7 +1410,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>62</v>
@@ -1407,7 +1419,7 @@
         <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>21</v>
@@ -1444,7 +1456,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>62</v>
@@ -1467,7 +1479,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>62</v>
@@ -1476,7 +1488,7 @@
         <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>21</v>
@@ -1533,7 +1545,7 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1542,10 +1554,10 @@
         <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>21</v>
@@ -1556,19 +1568,19 @@
         <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
@@ -1579,10 +1591,10 @@
         <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>62</v>
@@ -1591,7 +1603,7 @@
         <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>21</v>
@@ -1605,7 +1617,7 @@
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>62</v>
@@ -1614,7 +1626,7 @@
         <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
@@ -1628,7 +1640,7 @@
         <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>62</v>
@@ -1637,7 +1649,7 @@
         <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>21</v>
@@ -1660,7 +1672,7 @@
         <v>94</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1798,7 +1810,7 @@
         <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -1812,7 +1824,7 @@
         <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>62</v>
@@ -1821,7 +1833,7 @@
         <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>21</v>
@@ -1835,7 +1847,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>62</v>
@@ -1844,7 +1856,7 @@
         <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>21</v>
@@ -1875,19 +1887,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1910,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1933,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1956,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1979,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1990,19 +2002,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2025,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2048,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2071,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2094,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2117,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2140,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2163,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2174,19 +2186,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2209,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2232,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2255,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2278,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2301,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2324,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2335,7 +2347,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>127</v>
@@ -2344,10 +2356,10 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2358,7 +2370,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>128</v>
@@ -2367,10 +2379,10 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2381,7 +2393,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>129</v>
@@ -2390,10 +2402,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2404,7 +2416,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>130</v>
@@ -2413,10 +2425,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2439,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2462,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2485,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2508,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2531,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2554,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2577,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2600,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2623,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2646,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2657,1680 +2669,1864 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>21</v>
       </c>
     </row>
